--- a/dbt/export/templates/qc.vw_ic_reference_all_towns_oby_detail.xlsx
+++ b/dbt/export/templates/qc.vw_ic_reference_all_towns_oby_detail.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\ic_reference\ias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\ic_reference_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F0D266-0B60-4E0F-A8DC-AC63FD168C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898136B-B305-4F12-AB66-7308128EC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="5370" windowWidth="29025" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Query Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -460,9 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD91500"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
